--- a/Metrics Calculations/Project 5 - Apache Commons Pool/Apache Commons Pool Calculations (All Metrics).xlsx
+++ b/Metrics Calculations/Project 5 - Apache Commons Pool/Apache Commons Pool Calculations (All Metrics).xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vkhas\OneDrive\Desktop\SM Projects\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vicky\Desktop\SM\SOEN6611-Project\SoftwareMeasurement\Metrics Calculations\Project 5 - Apache Commons Pool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3D886D0-E618-4D18-A1D3-3AC10C693E35}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{7B3DEE1E-EE8A-4C58-8485-A75048BC9FA6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310"/>
   </bookViews>
   <sheets>
     <sheet name="Apache Commons - Pool" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,12 +30,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Khashyap V</author>
   </authors>
   <commentList>
-    <comment ref="M8" authorId="0" shapeId="0" xr:uid="{CA88C8A2-6664-4033-B82B-F318916F3CAB}">
+    <comment ref="O8" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -60,7 +59,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N8" authorId="0" shapeId="0" xr:uid="{5011BFFD-530A-4486-BCA5-8D3265560BA2}">
+    <comment ref="P8" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -89,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="32">
   <si>
     <t>Apache Commons – Pool (v2.6.2) Metric Calculations</t>
   </si>
@@ -176,12 +175,21 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>2.60-RC1</t>
+  </si>
+  <si>
+    <t>281258e</t>
+  </si>
+  <si>
+    <t>07f1173</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -417,13 +425,13 @@
     <xf numFmtId="1" fontId="4" fillId="2" borderId="8" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -743,11 +751,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77F16A72-CAC8-4296-B150-0EDFBCAA31DB}">
-  <dimension ref="A1:AA64"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AC64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -765,40 +773,40 @@
     <col min="15" max="26" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:27" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:27" s="1" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="12" t="s">
+    <row r="1" spans="2:29" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:29" s="1" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
-    </row>
-    <row r="3" spans="2:27" s="1" customFormat="1" ht="18" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="11" t="s">
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+    </row>
+    <row r="3" spans="2:29" s="1" customFormat="1" ht="18" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="I3" s="11" t="s">
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="I3" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-    </row>
-    <row r="4" spans="2:27" s="1" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+    </row>
+    <row r="4" spans="2:29" s="1" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C4" s="2" t="s">
         <v>3</v>
       </c>
@@ -815,22 +823,28 @@
         <v>3</v>
       </c>
       <c r="J4" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L4" s="3">
         <v>2.6</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="M4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="L4" s="4" t="s">
+      <c r="N4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="4" t="s">
+      <c r="O4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="N4" s="5" t="s">
+      <c r="P4" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:27" s="1" customFormat="1" ht="21.75" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:29" s="1" customFormat="1" ht="21.75" thickTop="1" x14ac:dyDescent="0.35">
       <c r="C5" s="2" t="s">
         <v>8</v>
       </c>
@@ -847,23 +861,29 @@
         <v>8</v>
       </c>
       <c r="J5" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="L5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="M5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="7" t="s">
+      <c r="N5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="M5" s="7" t="s">
+      <c r="O5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="N5" s="8" t="s">
+      <c r="P5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="AA5"/>
-    </row>
-    <row r="6" spans="2:27" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="AC5"/>
+    </row>
+    <row r="6" spans="2:29" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="C6" s="2" t="s">
         <v>14</v>
       </c>
@@ -880,23 +900,29 @@
         <v>15</v>
       </c>
       <c r="J6" s="6">
+        <v>16243</v>
+      </c>
+      <c r="K6" s="6">
         <v>16485</v>
       </c>
-      <c r="K6" s="7">
+      <c r="L6" s="6">
+        <v>16485</v>
+      </c>
+      <c r="M6" s="7">
         <v>16525</v>
       </c>
-      <c r="L6" s="7">
+      <c r="N6" s="7">
         <v>16819</v>
       </c>
-      <c r="M6" s="7">
+      <c r="O6" s="7">
         <v>16819</v>
       </c>
-      <c r="N6" s="9">
+      <c r="P6" s="9">
         <v>16846</v>
       </c>
-      <c r="AA6"/>
-    </row>
-    <row r="7" spans="2:27" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="AC6"/>
+    </row>
+    <row r="7" spans="2:29" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="C7" s="2" t="s">
         <v>16</v>
       </c>
@@ -915,21 +941,27 @@
       <c r="J7" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="K7" s="7">
+      <c r="K7" s="6">
+        <v>0</v>
+      </c>
+      <c r="L7" s="6">
+        <v>0</v>
+      </c>
+      <c r="M7" s="7">
         <v>128</v>
       </c>
-      <c r="L7" s="7">
+      <c r="N7" s="7">
         <v>1981</v>
       </c>
-      <c r="M7" s="7">
+      <c r="O7" s="7">
         <v>0</v>
       </c>
-      <c r="N7" s="8">
+      <c r="P7" s="8">
         <v>155</v>
       </c>
-      <c r="AA7"/>
-    </row>
-    <row r="8" spans="2:27" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="AC7"/>
+    </row>
+    <row r="8" spans="2:29" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="C8" s="2" t="s">
         <v>18</v>
       </c>
@@ -951,35 +983,41 @@
       <c r="K8" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="L8" s="6" t="s">
+      <c r="L8" s="6">
+        <v>0</v>
+      </c>
+      <c r="M8" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="M8" s="7">
-        <f>(K7+L7+M7)/M6</f>
+      <c r="N8" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="O8" s="7">
+        <f>(M7+N7+O7)/O6</f>
         <v>0.12539389975622808</v>
       </c>
-      <c r="N8" s="8">
-        <f>N7/N6</f>
+      <c r="P8" s="8">
+        <f>P7/P6</f>
         <v>9.2009972693814553E-3</v>
       </c>
-      <c r="AA8"/>
-    </row>
-    <row r="9" spans="2:27" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="2:27" s="1" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="C10" s="11" t="s">
+      <c r="AC8"/>
+    </row>
+    <row r="9" spans="2:29" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="2:29" s="1" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="C10" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="I10" s="11" t="s">
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="I10" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-    </row>
-    <row r="11" spans="2:27" s="1" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+    </row>
+    <row r="11" spans="2:29" s="1" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C11" s="2" t="s">
         <v>3</v>
       </c>
@@ -1005,7 +1043,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="2:27" s="1" customFormat="1" ht="21.75" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:29" s="1" customFormat="1" ht="21.75" thickTop="1" x14ac:dyDescent="0.35">
       <c r="C12" s="2" t="s">
         <v>8</v>
       </c>
@@ -1031,7 +1069,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="2:27" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:29" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="C13" s="2" t="s">
         <v>22</v>
       </c>
@@ -1057,7 +1095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:27" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:29" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="C14" s="2" t="s">
         <v>24</v>
       </c>
@@ -1083,7 +1121,7 @@
         <v>16846</v>
       </c>
     </row>
-    <row r="15" spans="2:27" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:29" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="C15" s="2" t="s">
         <v>25</v>
       </c>
@@ -1112,7 +1150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:27" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:29" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="I16" s="2" t="s">
         <v>27</v>
       </c>
@@ -1130,20 +1168,20 @@
       </c>
     </row>
     <row r="17" spans="2:15" s="1" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="10"/>
-      <c r="M17" s="10"/>
-      <c r="N17" s="10"/>
-      <c r="O17" s="10"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="11"/>
     </row>
     <row r="18" spans="2:15" s="1" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="19" spans="2:15" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
